--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/20/seed4/result_data_RandomForest.xlsx
@@ -593,7 +593,7 @@
         <v>-7.01</v>
       </c>
       <c r="E9" t="n">
-        <v>16.93760000000002</v>
+        <v>17.06250000000001</v>
       </c>
     </row>
     <row r="10">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.7031</v>
+        <v>16.6825</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.74749999999999</v>
+        <v>16.669</v>
       </c>
     </row>
     <row r="17">
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>17.76740000000003</v>
+        <v>17.63940000000002</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.1589</v>
+        <v>16.0187</v>
       </c>
     </row>
     <row r="21">
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.10509999999999</v>
+        <v>16.17059999999999</v>
       </c>
     </row>
     <row r="27">
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.73139999999999</v>
+        <v>16.75619999999999</v>
       </c>
     </row>
     <row r="28">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.99850000000001</v>
+        <v>16.86840000000002</v>
       </c>
     </row>
     <row r="30">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.18099999999999</v>
+        <v>16.0135</v>
       </c>
     </row>
     <row r="36">
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>17.54640000000002</v>
+        <v>17.52920000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.5749</v>
+        <v>16.4628</v>
       </c>
     </row>
     <row r="46">
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.5267</v>
+        <v>16.56019999999999</v>
       </c>
     </row>
     <row r="56">
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.61750000000001</v>
+        <v>16.6039</v>
       </c>
     </row>
     <row r="58">
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.24110000000001</v>
+        <v>17.22590000000002</v>
       </c>
     </row>
     <row r="70">
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.08409999999999</v>
+        <v>16.21309999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.65310000000002</v>
+        <v>16.67800000000002</v>
       </c>
     </row>
     <row r="79">
@@ -1834,7 +1834,7 @@
         <v>-7.37</v>
       </c>
       <c r="E82" t="n">
-        <v>16.75090000000001</v>
+        <v>16.84810000000001</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.3945</v>
+        <v>16.4686</v>
       </c>
     </row>
     <row r="84">
@@ -2021,7 +2021,7 @@
         <v>-6.1</v>
       </c>
       <c r="E93" t="n">
-        <v>18.01510000000003</v>
+        <v>18.01510000000002</v>
       </c>
     </row>
     <row r="94">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.37169999999999</v>
+        <v>16.592</v>
       </c>
     </row>
     <row r="98">
